--- a/data/trans_camb/P37_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 13,66</t>
+          <t>-30,14; 18,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 23,77</t>
+          <t>-20,63; 29,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 11,82</t>
+          <t>-19,74; 29,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 9,59</t>
+          <t>-23,1; 16,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 6,19</t>
+          <t>-27,58; 14,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 10,4</t>
+          <t>-20,08; 19,5</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-19,86; 13,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-17,66; 15,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 17,55</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 23,48</t>
+          <t>-38,97; 34,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 43,11</t>
+          <t>-27,07; 58,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 17,41</t>
+          <t>-25,77; 61,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 14,14</t>
+          <t>-28,05; 28,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 9,32</t>
+          <t>-33,84; 24,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 16,24</t>
+          <t>-24,63; 33,14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-26,87; 23,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; 26,53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,18; 31,32</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,7</t>
+          <t>-17,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-11,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,39</t>
+          <t>-26,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,58</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,95</t>
+          <t>-13,24</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-12,97</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-10,61</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-21,68</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 4,04</t>
+          <t>-45,64; 12,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 10,03</t>
+          <t>-43,73; 20,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 6,07</t>
+          <t>-57,37; 6,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 2,87</t>
+          <t>-22,57; 12,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -0,66</t>
+          <t>-25,54; 8,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 1,76</t>
+          <t>-31,05; 5,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; 6,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-31,49; 8,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,96; -1,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,22%</t>
+          <t>-27,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,96%</t>
+          <t>-18,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-19,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,6%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-31,86%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 5,05</t>
+          <t>-60,34; 23,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 14,08</t>
+          <t>-57,19; 39,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 9,08</t>
+          <t>-73,7; 8,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 3,89</t>
+          <t>-29,67; 21,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -1,72</t>
+          <t>-33,31; 12,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 2,22</t>
+          <t>-42,58; 8,52</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-42,03; 10,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-42,1; 12,74</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-57,06; -4,17</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-10,12</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 19,7</t>
+          <t>-13,25; 20,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 18,33</t>
+          <t>-19,7; 13,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 7,6</t>
+          <t>-20,85; 14,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 8,28</t>
+          <t>-21,6; 6,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 9,39</t>
+          <t>-17,59; 8,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 9,64</t>
+          <t>-23,77; 3,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,15; 8,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 8,01</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 4,76</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-10,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-15,08%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-4,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,7%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 33,14</t>
+          <t>-17,95; 39,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 30,28</t>
+          <t>-26,67; 25,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 13,12</t>
+          <t>-27,94; 26,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 14,08</t>
+          <t>-29,38; 10,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 15,66</t>
+          <t>-24,2; 13,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 15,44</t>
+          <t>-32,9; 5,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,61; 14,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 13,23</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-24,94; 7,81</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-10,18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-6,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 11,97</t>
+          <t>-18,8; 11,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 11,13</t>
+          <t>-17,06; 13,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 5,83</t>
+          <t>-18,69; 12,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 4,85</t>
+          <t>-17,71; 8,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 5,64</t>
+          <t>-18,18; 7,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 4,52</t>
+          <t>-23,37; 2,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 7,76</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 6,99</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-16,48; 4,01</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-5,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-7,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,1%</t>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-5,2%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-11,04%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 23,19</t>
+          <t>-27,98; 22,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 21,36</t>
+          <t>-25,63; 26,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 10,31</t>
+          <t>-28,28; 23,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 8,43</t>
+          <t>-25,14; 15,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 9,79</t>
+          <t>-25,76; 13,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 7,77</t>
+          <t>-33,5; 3,71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-20,33; 13,76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-20,19; 12,25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 6,93</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-15,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,11</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 19,68</t>
+          <t>-9,66; 25,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 15,3</t>
+          <t>-11,24; 24,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 9,25</t>
+          <t>-12,94; 22,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 2,26</t>
+          <t>-22,76; 14,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 10,2</t>
+          <t>-25,93; 12,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 6,29</t>
+          <t>-34,36; 4,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 16,6</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 15,05</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 8,64</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-22,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-8,03%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 37,88</t>
+          <t>-14,04; 52,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 28,69</t>
+          <t>-16,5; 51,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 15,19</t>
+          <t>-18,57; 48,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 4,22</t>
+          <t>-30,24; 24,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 17,29</t>
+          <t>-34,24; 21,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 10,46</t>
+          <t>-46,11; 7,37</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 30,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,98; 25,94</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-25,73; 15,08</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-16,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>-18,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>17,85</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-6,69</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-8,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 10,15</t>
+          <t>-26,45; 15,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 7,72</t>
+          <t>-34,71; 5,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 27,14</t>
+          <t>-38,73; 3,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,45; 42,08</t>
+          <t>-15,7; 26,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 14,67</t>
+          <t>-19,75; 24,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 21,27</t>
+          <t>-26,28; 20,65</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-15,12; 13,61</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 7,94</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-25,9; 6,65</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>-22,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>-25,05%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>-0,15%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-10,86%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-13,55%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 17,21</t>
+          <t>-32,18; 24,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 13,22</t>
+          <t>-44,4; 9,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 82,76</t>
+          <t>-49,29; 6,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,14; 128,84</t>
+          <t>-25,63; 61,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 33,06</t>
+          <t>-33,45; 59,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 46,16</t>
+          <t>-42,68; 47,89</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-22,17; 25,17</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 14,82</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-38,82; 12,11</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-8,72</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-8,29</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 4,2</t>
+          <t>-12,43; 5,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,66</t>
+          <t>-12,68; 5,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,82</t>
+          <t>-18,64; 1,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 3,01</t>
+          <t>-10,07; 3,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,83</t>
+          <t>-10,79; 2,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 2,52</t>
+          <t>-16,83; -2,13</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 2,36</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 1,45</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-14,59; -2,25</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-13,26%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-12,78%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 6,73</t>
+          <t>-18,19; 8,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 8,78</t>
+          <t>-19,08; 9,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 4,59</t>
+          <t>-28,03; 2,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,96</t>
+          <t>-15,11; 5,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 2,89</t>
+          <t>-15,65; 4,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 4,06</t>
+          <t>-24,21; -3,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 3,58</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 2,3</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; -3,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
